--- a/artefacts/Burndown Chart Sprint 2.xlsx
+++ b/artefacts/Burndown Chart Sprint 2.xlsx
@@ -229,7 +229,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -268,10 +268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$28</c:f>
+              <c:f>Sheet1!$E$8:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -304,108 +304,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$28</c:f>
+              <c:f>Sheet1!$F$8:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,11 +360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108480832"/>
-        <c:axId val="2107643872"/>
+        <c:axId val="-2119098224"/>
+        <c:axId val="-2119007760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108480832"/>
+        <c:axId val="-2119098224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -543,15 +483,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107643872"/>
+        <c:crossAx val="-2119007760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107643872"/>
+        <c:axId val="-2119007760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35.0"/>
+          <c:max val="55.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -667,7 +607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108480832"/>
+        <c:crossAx val="-2119098224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1617,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1639,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
@@ -1655,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
@@ -1663,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
@@ -1671,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
@@ -1679,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
@@ -1687,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
@@ -1695,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
@@ -1703,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
@@ -1711,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
@@ -1719,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
@@ -1727,7 +1667,7 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
@@ -1735,87 +1675,57 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>11</v>
       </c>
-      <c r="F19">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>12</v>
       </c>
-      <c r="F20">
-        <v>28</v>
-      </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E21">
         <v>13</v>
       </c>
-      <c r="F21">
-        <v>28</v>
-      </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22">
         <v>14</v>
       </c>
-      <c r="F22">
-        <v>27</v>
-      </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23">
         <v>15</v>
       </c>
-      <c r="F23">
-        <v>22</v>
-      </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>16</v>
       </c>
-      <c r="F24">
-        <v>18</v>
-      </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25">
         <v>17</v>
       </c>
-      <c r="F25">
-        <v>13</v>
-      </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>18</v>
       </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27">
         <v>19</v>
       </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28">
         <v>20</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/artefacts/Burndown Chart Sprint 2.xlsx
+++ b/artefacts/Burndown Chart Sprint 2.xlsx
@@ -229,7 +229,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>52.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -268,10 +268,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$18</c:f>
+              <c:f>Sheet1!$E$8:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -304,48 +304,108 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$18</c:f>
+              <c:f>Sheet1!$F$8:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>52.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.0</c:v>
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,11 +420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119098224"/>
-        <c:axId val="-2119007760"/>
+        <c:axId val="-2127123440"/>
+        <c:axId val="-2127723984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119098224"/>
+        <c:axId val="-2127123440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -483,12 +543,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119007760"/>
+        <c:crossAx val="-2127723984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119007760"/>
+        <c:axId val="-2127723984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55.0"/>
@@ -607,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119098224"/>
+        <c:crossAx val="-2127123440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1557,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.2">
@@ -1595,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.2">
@@ -1603,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.2">
@@ -1611,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.2">
@@ -1619,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.2">
@@ -1627,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.2">
@@ -1635,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.2">
@@ -1643,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="5:6" x14ac:dyDescent="0.2">
@@ -1651,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="5:6" x14ac:dyDescent="0.2">
@@ -1659,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
@@ -1667,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
@@ -1675,57 +1735,87 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>11</v>
       </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>12</v>
       </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E21">
         <v>13</v>
       </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22">
         <v>14</v>
       </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23">
         <v>15</v>
       </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>16</v>
       </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25">
         <v>17</v>
       </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>18</v>
       </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27">
         <v>19</v>
       </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28">
         <v>20</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/artefacts/Burndown Chart Sprint 2.xlsx
+++ b/artefacts/Burndown Chart Sprint 2.xlsx
@@ -420,11 +420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127123440"/>
-        <c:axId val="-2127723984"/>
+        <c:axId val="-2101853024"/>
+        <c:axId val="-2120464400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127123440"/>
+        <c:axId val="-2101853024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -543,15 +543,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127723984"/>
+        <c:crossAx val="-2120464400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127723984"/>
+        <c:axId val="-2120464400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55.0"/>
+          <c:max val="25.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -667,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127123440"/>
+        <c:crossAx val="-2101853024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
